--- a/Code/Results/Cases/Case_9_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_0/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9654907643507796</v>
+        <v>0.9980342968504132</v>
       </c>
       <c r="D2">
-        <v>0.9909410204974283</v>
+        <v>1.020227969265646</v>
       </c>
       <c r="E2">
-        <v>0.9741685343264226</v>
+        <v>1.002342692684421</v>
       </c>
       <c r="F2">
-        <v>0.9404165842304503</v>
+        <v>1.01577072413432</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031922783209725</v>
+        <v>1.046782275101134</v>
       </c>
       <c r="J2">
-        <v>0.988755019043051</v>
+        <v>1.020273961143928</v>
       </c>
       <c r="K2">
-        <v>1.002528020873888</v>
+        <v>1.031412509617071</v>
       </c>
       <c r="L2">
-        <v>0.9859998716858105</v>
+        <v>1.013769486278824</v>
       </c>
       <c r="M2">
-        <v>0.952773535414713</v>
+        <v>1.0270146344435</v>
       </c>
       <c r="N2">
-        <v>0.9901591645818777</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.021722867195811</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.029952583034312</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.033281564413829</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9769377782726559</v>
+        <v>1.004825848129953</v>
       </c>
       <c r="D3">
-        <v>0.9997854397836442</v>
+        <v>1.024987077111015</v>
       </c>
       <c r="E3">
-        <v>0.9840772148632381</v>
+        <v>1.008245117487966</v>
       </c>
       <c r="F3">
-        <v>0.9551008209614458</v>
+        <v>1.020117966595953</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035901098305474</v>
+        <v>1.04870362624981</v>
       </c>
       <c r="J3">
-        <v>0.998077515803948</v>
+        <v>1.025185814633748</v>
       </c>
       <c r="K3">
-        <v>1.010421066684091</v>
+        <v>1.035309922471375</v>
       </c>
       <c r="L3">
-        <v>0.9949179680096973</v>
+        <v>1.018773576396162</v>
       </c>
       <c r="M3">
-        <v>0.9663423658622405</v>
+        <v>1.030499746114026</v>
       </c>
       <c r="N3">
-        <v>0.9994949003574809</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.026641696080985</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.032710850935052</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.036034737809099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9839783851463014</v>
+        <v>1.009085692487845</v>
       </c>
       <c r="D4">
-        <v>1.005228524489157</v>
+        <v>1.02797409762945</v>
       </c>
       <c r="E4">
-        <v>0.9901733654860836</v>
+        <v>1.011947723393485</v>
       </c>
       <c r="F4">
-        <v>0.9641161828189446</v>
+        <v>1.0228611408862</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03832812846267</v>
+        <v>1.049892112496765</v>
       </c>
       <c r="J4">
-        <v>1.003800998517013</v>
+        <v>1.028259806579122</v>
       </c>
       <c r="K4">
-        <v>1.015264252778433</v>
+        <v>1.037746227913403</v>
       </c>
       <c r="L4">
-        <v>1.000391854265676</v>
+        <v>1.021904057246478</v>
       </c>
       <c r="M4">
-        <v>0.9746678970722132</v>
+        <v>1.032691264740112</v>
       </c>
       <c r="N4">
-        <v>1.005226511072491</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.029720053447513</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.034445307860266</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.037758335329352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9868587388353943</v>
+        <v>1.010860465115729</v>
       </c>
       <c r="D5">
-        <v>1.007455842516652</v>
+        <v>1.029220952309471</v>
       </c>
       <c r="E5">
-        <v>0.992667586598993</v>
+        <v>1.013496114626757</v>
       </c>
       <c r="F5">
-        <v>0.9678015032635556</v>
+        <v>1.024004762544205</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039316173292202</v>
+        <v>1.050385349758661</v>
       </c>
       <c r="J5">
-        <v>1.006139972752384</v>
+        <v>1.029542504734472</v>
       </c>
       <c r="K5">
-        <v>1.017242743187997</v>
+        <v>1.038762958080233</v>
       </c>
       <c r="L5">
-        <v>1.002628475881025</v>
+        <v>1.023213751498289</v>
       </c>
       <c r="M5">
-        <v>0.9780699145954481</v>
+        <v>1.033604292718157</v>
       </c>
       <c r="N5">
-        <v>1.00756880691956</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.031004573181371</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.035167914055624</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.038484441739408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9873379146745873</v>
+        <v>1.011174354167958</v>
       </c>
       <c r="D6">
-        <v>1.00782640305464</v>
+        <v>1.029443916600213</v>
       </c>
       <c r="E6">
-        <v>0.9930825358488197</v>
+        <v>1.013776903854914</v>
       </c>
       <c r="F6">
-        <v>0.9684144476851116</v>
+        <v>1.024203495954631</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039480255224132</v>
+        <v>1.050474980873582</v>
       </c>
       <c r="J6">
-        <v>1.006528934323711</v>
+        <v>1.029773736564012</v>
       </c>
       <c r="K6">
-        <v>1.017571711774972</v>
+        <v>1.038947209148999</v>
       </c>
       <c r="L6">
-        <v>1.003000395017314</v>
+        <v>1.023454325624266</v>
       </c>
       <c r="M6">
-        <v>0.9786356599486415</v>
+        <v>1.03376430367949</v>
       </c>
       <c r="N6">
-        <v>1.007958320860933</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.031236133386631</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.035294552937738</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.038623484279727</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9840171751390896</v>
+        <v>1.009157878763059</v>
       </c>
       <c r="D7">
-        <v>1.005258518239085</v>
+        <v>1.028031265494133</v>
       </c>
       <c r="E7">
-        <v>0.9902069545987653</v>
+        <v>1.012029831323299</v>
       </c>
       <c r="F7">
-        <v>0.9641658237624466</v>
+        <v>1.02289738356868</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038341454022681</v>
+        <v>1.049919311533003</v>
       </c>
       <c r="J7">
-        <v>1.003832507828015</v>
+        <v>1.028324184982368</v>
       </c>
       <c r="K7">
-        <v>1.015290908914406</v>
+        <v>1.03779985939827</v>
       </c>
       <c r="L7">
-        <v>1.000421986182324</v>
+        <v>1.021982249600057</v>
       </c>
       <c r="M7">
-        <v>0.9747137272927396</v>
+        <v>1.032724182413771</v>
       </c>
       <c r="N7">
-        <v>1.005258065130328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.029784523275475</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.034471360212696</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.037816422571041</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9694405642387351</v>
+        <v>1.000422998057984</v>
       </c>
       <c r="D8">
-        <v>0.9939919313524732</v>
+        <v>1.021909238034081</v>
       </c>
       <c r="E8">
-        <v>0.9775870564857644</v>
+        <v>1.004444794149336</v>
       </c>
       <c r="F8">
-        <v>0.9454875736917555</v>
+        <v>1.017282794957548</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033299692901626</v>
+        <v>1.047470227810799</v>
       </c>
       <c r="J8">
-        <v>0.991973959178113</v>
+        <v>1.02201893715299</v>
       </c>
       <c r="K8">
-        <v>1.005253905520323</v>
+        <v>1.032800392690885</v>
       </c>
       <c r="L8">
-        <v>0.9890794349737353</v>
+        <v>1.015564892615663</v>
       </c>
       <c r="M8">
-        <v>0.9574603399455036</v>
+        <v>1.028233640150378</v>
       </c>
       <c r="N8">
-        <v>0.9933826759811494</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.023470321270958</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.030917358042473</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.034285978964664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.940492124553819</v>
+        <v>0.9838299771539655</v>
       </c>
       <c r="D9">
-        <v>0.9716595572397524</v>
+        <v>1.010291247722007</v>
       </c>
       <c r="E9">
-        <v>0.95254881286894</v>
+        <v>0.9900072044196302</v>
       </c>
       <c r="F9">
-        <v>0.9081908437377848</v>
+        <v>1.006776813612212</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023123225375348</v>
+        <v>1.042674631510305</v>
       </c>
       <c r="J9">
-        <v>0.9683366344523503</v>
+        <v>1.009966952910881</v>
       </c>
       <c r="K9">
-        <v>0.9852298065107443</v>
+        <v>1.023219534411108</v>
       </c>
       <c r="L9">
-        <v>0.9664617163112729</v>
+        <v>1.003264515415472</v>
       </c>
       <c r="M9">
-        <v>0.9229725790590706</v>
+        <v>1.019760890331666</v>
       </c>
       <c r="N9">
-        <v>0.9697117835430369</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011401221828844</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.024211621336735</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.027508309629069</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9181586749767517</v>
+        <v>0.972318172295267</v>
       </c>
       <c r="D10">
-        <v>0.9544872958360311</v>
+        <v>1.002263909463433</v>
       </c>
       <c r="E10">
-        <v>0.9332670813866851</v>
+        <v>0.9801160008376619</v>
       </c>
       <c r="F10">
-        <v>0.8791478755765296</v>
+        <v>0.9997968719731504</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.015167182094803</v>
+        <v>1.039296535362348</v>
       </c>
       <c r="J10">
-        <v>0.95004287338496</v>
+        <v>1.00167482111987</v>
       </c>
       <c r="K10">
-        <v>0.969729971789268</v>
+        <v>1.016592408280079</v>
       </c>
       <c r="L10">
-        <v>0.9489556601703431</v>
+        <v>0.9948537937777649</v>
       </c>
       <c r="M10">
-        <v>0.896105609743304</v>
+        <v>1.014169794928025</v>
       </c>
       <c r="N10">
-        <v>0.9513920432366075</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.003097314259568</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.019839155359093</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.022839413356037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9074894808683175</v>
+        <v>0.9705277986284085</v>
       </c>
       <c r="D11">
-        <v>0.9463057842151998</v>
+        <v>1.001092198471612</v>
       </c>
       <c r="E11">
-        <v>0.9240699498330556</v>
+        <v>0.9795222450953965</v>
       </c>
       <c r="F11">
-        <v>0.8651640425241351</v>
+        <v>1.000389092270709</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.011344050402006</v>
+        <v>1.038989145004961</v>
       </c>
       <c r="J11">
-        <v>0.941290357135826</v>
+        <v>1.001180217054233</v>
       </c>
       <c r="K11">
-        <v>0.9623166746240278</v>
+        <v>1.015993546880683</v>
       </c>
       <c r="L11">
-        <v>0.9405814321734409</v>
+        <v>0.9948409577526057</v>
       </c>
       <c r="M11">
-        <v>0.8831718569924791</v>
+        <v>1.015303674609895</v>
       </c>
       <c r="N11">
-        <v>0.942627097410472</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.002602007799426</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.021181608748391</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.022449386757721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9033418974766093</v>
+        <v>0.971002910046967</v>
       </c>
       <c r="D12">
-        <v>0.943129551159236</v>
+        <v>1.001470170822472</v>
       </c>
       <c r="E12">
-        <v>0.9204974355105201</v>
+        <v>0.980619706701918</v>
       </c>
       <c r="F12">
-        <v>0.8597057074019154</v>
+        <v>1.001846826566303</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.009854783513706</v>
+        <v>1.039284038361803</v>
       </c>
       <c r="J12">
-        <v>0.9378859417235857</v>
+        <v>1.002087278051733</v>
       </c>
       <c r="K12">
-        <v>0.9594338999509782</v>
+        <v>1.016569258777887</v>
       </c>
       <c r="L12">
-        <v>0.9373245981671021</v>
+        <v>0.9961278658058315</v>
       </c>
       <c r="M12">
-        <v>0.8781244191933896</v>
+        <v>1.016938729620793</v>
       </c>
       <c r="N12">
-        <v>0.9392178473378542</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.003510356927584</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.022806809282695</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.022856446569387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9042406155294944</v>
+        <v>0.973295008747144</v>
       </c>
       <c r="D13">
-        <v>0.9438175818657273</v>
+        <v>1.003102440293322</v>
       </c>
       <c r="E13">
-        <v>0.9212714052987748</v>
+        <v>0.9831452414563635</v>
       </c>
       <c r="F13">
-        <v>0.8608895603436758</v>
+        <v>1.004103644712397</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.010177616041493</v>
+        <v>1.040086511864439</v>
       </c>
       <c r="J13">
-        <v>0.9386237126065365</v>
+        <v>1.004177273411232</v>
       </c>
       <c r="K13">
-        <v>0.960058586238504</v>
+        <v>1.018126607812662</v>
       </c>
       <c r="L13">
-        <v>0.9380303622337838</v>
+        <v>0.9985574896464293</v>
       </c>
       <c r="M13">
-        <v>0.8792190938124487</v>
+        <v>1.019108874184586</v>
       </c>
       <c r="N13">
-        <v>0.9399566659400824</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.005603320320219</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.02480313165926</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.023955045109004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9071506508423203</v>
+        <v>0.9756700848390266</v>
       </c>
       <c r="D14">
-        <v>0.9460462146628876</v>
+        <v>1.00477784803516</v>
       </c>
       <c r="E14">
-        <v>0.9237780379841627</v>
+        <v>0.9855059882995306</v>
       </c>
       <c r="F14">
-        <v>0.8647186199152729</v>
+        <v>1.005998263165293</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.011222446363595</v>
+        <v>1.040860224804682</v>
       </c>
       <c r="J14">
-        <v>0.9410122775041552</v>
+        <v>1.006128409904641</v>
       </c>
       <c r="K14">
-        <v>0.9620811865338561</v>
+        <v>1.019627071527976</v>
       </c>
       <c r="L14">
-        <v>0.9403153968150453</v>
+        <v>1.00072385186049</v>
       </c>
       <c r="M14">
-        <v>0.8827599401598185</v>
+        <v>1.020824762322152</v>
       </c>
       <c r="N14">
-        <v>0.942348622873828</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.007557227651247</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.026334701447065</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.025017397503929</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.908917915534313</v>
+        <v>0.9766890399037614</v>
       </c>
       <c r="D15">
-        <v>0.9474002519969449</v>
+        <v>1.005493490962952</v>
       </c>
       <c r="E15">
-        <v>0.9253007051184389</v>
+        <v>0.9864437308592338</v>
       </c>
       <c r="F15">
-        <v>0.8670409167935085</v>
+        <v>1.006697998603396</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.011856586500698</v>
+        <v>1.041176804988454</v>
       </c>
       <c r="J15">
-        <v>0.9424626039591504</v>
+        <v>1.006907618658961</v>
       </c>
       <c r="K15">
-        <v>0.9633094082840491</v>
+        <v>1.020241190380482</v>
       </c>
       <c r="L15">
-        <v>0.9417029255475327</v>
+        <v>1.001552530203547</v>
       </c>
       <c r="M15">
-        <v>0.8849075935695114</v>
+        <v>1.02142346443611</v>
       </c>
       <c r="N15">
-        <v>0.9438010089587442</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008337542971374</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.02684579976786</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.025457561006672</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9188430344247817</v>
+        <v>0.9810237937640245</v>
       </c>
       <c r="D16">
-        <v>0.9550126057822886</v>
+        <v>1.008510847687537</v>
       </c>
       <c r="E16">
-        <v>0.9338573557981807</v>
+        <v>0.9900205441728958</v>
       </c>
       <c r="F16">
-        <v>0.880042211794818</v>
+        <v>1.009205213021962</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.015411983493058</v>
+        <v>1.042436497964476</v>
       </c>
       <c r="J16">
-        <v>0.9506040287276597</v>
+        <v>1.009931801319519</v>
       </c>
       <c r="K16">
-        <v>0.9702053423295505</v>
+        <v>1.022691886422416</v>
       </c>
       <c r="L16">
-        <v>0.9494926075039759</v>
+        <v>1.004535133840102</v>
       </c>
       <c r="M16">
-        <v>0.8969328842985036</v>
+        <v>1.023374034552505</v>
       </c>
       <c r="N16">
-        <v>0.9519539954842591</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.01136602031819</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.028348437766934</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.027193523185896</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9247805731572867</v>
+        <v>0.9831433025220521</v>
       </c>
       <c r="D17">
-        <v>0.9595727225128843</v>
+        <v>1.009975796202421</v>
       </c>
       <c r="E17">
-        <v>0.9389802187944691</v>
+        <v>0.9915735396652389</v>
       </c>
       <c r="F17">
-        <v>0.8877891094749681</v>
+        <v>1.01015738091686</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.01753347631458</v>
+        <v>1.043007774849729</v>
       </c>
       <c r="J17">
-        <v>0.9554712080270749</v>
+        <v>1.011265033981812</v>
       </c>
       <c r="K17">
-        <v>0.9743287701575898</v>
+        <v>1.023811145572111</v>
       </c>
       <c r="L17">
-        <v>0.9541499909957362</v>
+        <v>1.00573094619524</v>
       </c>
       <c r="M17">
-        <v>0.9040991897834632</v>
+        <v>1.023989627906372</v>
       </c>
       <c r="N17">
-        <v>0.9568280867365528</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012701146323787</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.028704746626985</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.027987507225219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9281503159824679</v>
+        <v>0.9834017480067445</v>
       </c>
       <c r="D18">
-        <v>0.9621626680599871</v>
+        <v>1.01012523344355</v>
       </c>
       <c r="E18">
-        <v>0.9418888452653432</v>
+        <v>0.9913466192668645</v>
       </c>
       <c r="F18">
-        <v>0.892176231765945</v>
+        <v>1.009640145389163</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.018735439664685</v>
+        <v>1.042983199082719</v>
       </c>
       <c r="J18">
-        <v>0.9582322887593221</v>
+        <v>1.011106822759706</v>
       </c>
       <c r="K18">
-        <v>0.9766681306313457</v>
+        <v>1.023771451365815</v>
       </c>
       <c r="L18">
-        <v>0.9567921686929505</v>
+        <v>1.005316412022429</v>
       </c>
       <c r="M18">
-        <v>0.908157681892653</v>
+        <v>1.023294526548452</v>
       </c>
       <c r="N18">
-        <v>0.9595930885201399</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012542710423599</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.027914880964076</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.027947675655586</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9292843122336234</v>
+        <v>0.981940469624128</v>
       </c>
       <c r="D19">
-        <v>0.963034548953257</v>
+        <v>1.009065968647237</v>
       </c>
       <c r="E19">
-        <v>0.9428678587838417</v>
+        <v>0.9894995744642795</v>
       </c>
       <c r="F19">
-        <v>0.8936511228011335</v>
+        <v>1.007676678029154</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.019139572302095</v>
+        <v>1.042412717118881</v>
       </c>
       <c r="J19">
-        <v>0.9591612511644656</v>
+        <v>1.009564812533685</v>
       </c>
       <c r="K19">
-        <v>0.9774552308573774</v>
+        <v>1.022666311329779</v>
       </c>
       <c r="L19">
-        <v>0.9576811399335114</v>
+        <v>1.003436522840021</v>
       </c>
       <c r="M19">
-        <v>0.9095221045214263</v>
+        <v>1.021300365010518</v>
       </c>
       <c r="N19">
-        <v>0.9605233701584525</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.010998510366185</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.02600796948476</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.027172763870868</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9241534169001794</v>
+        <v>0.9755030342653205</v>
       </c>
       <c r="D20">
-        <v>0.95909084939198</v>
+        <v>1.004498249179649</v>
       </c>
       <c r="E20">
-        <v>0.9384389796933075</v>
+        <v>0.9829224150741084</v>
       </c>
       <c r="F20">
-        <v>0.8869718634610756</v>
+        <v>1.001703062901288</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.017309604821551</v>
+        <v>1.040254977949104</v>
       </c>
       <c r="J20">
-        <v>0.9549572340820778</v>
+        <v>1.004012063854953</v>
       </c>
       <c r="K20">
-        <v>0.9738933133643068</v>
+        <v>1.018462460782617</v>
       </c>
       <c r="L20">
-        <v>0.953658158563055</v>
+        <v>0.9972723505243904</v>
       </c>
       <c r="M20">
-        <v>0.9033431715333112</v>
+        <v>1.015716031959096</v>
       </c>
       <c r="N20">
-        <v>0.9563133828896002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.005437876147421</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.021052077128908</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.024204425267942</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9062991541682204</v>
+        <v>0.9660322925268653</v>
       </c>
       <c r="D21">
-        <v>0.9453939755357442</v>
+        <v>0.9978884357112578</v>
       </c>
       <c r="E21">
-        <v>0.9230444966112135</v>
+        <v>0.9746074984499109</v>
       </c>
       <c r="F21">
-        <v>0.8635988727120896</v>
+        <v>0.9956723945727689</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.010916801914047</v>
+        <v>1.037400751528685</v>
       </c>
       <c r="J21">
-        <v>0.9403134189459244</v>
+        <v>0.9970221897044727</v>
       </c>
       <c r="K21">
-        <v>0.9614893804250675</v>
+        <v>1.012909923056339</v>
       </c>
       <c r="L21">
-        <v>0.9396468154104013</v>
+        <v>0.9900864551886294</v>
       </c>
       <c r="M21">
-        <v>0.8817244420164355</v>
+        <v>1.010736221228123</v>
       </c>
       <c r="N21">
-        <v>0.9416487718562843</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9984380755738967</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.017068996591379</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.020281785252614</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8939777226861774</v>
+        <v>0.9599724758478506</v>
       </c>
       <c r="D22">
-        <v>0.9359677829194788</v>
+        <v>0.9936660442728846</v>
       </c>
       <c r="E22">
-        <v>0.9124378522591718</v>
+        <v>0.9693143804275064</v>
       </c>
       <c r="F22">
-        <v>0.8473318493776982</v>
+        <v>0.9919599863038132</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.006487131622149</v>
+        <v>1.03556542043094</v>
       </c>
       <c r="J22">
-        <v>0.9301960834189582</v>
+        <v>0.9925758973997013</v>
       </c>
       <c r="K22">
-        <v>0.9529242008111853</v>
+        <v>1.009364031069235</v>
       </c>
       <c r="L22">
-        <v>0.9299692692508517</v>
+        <v>0.9855192599423426</v>
       </c>
       <c r="M22">
-        <v>0.8666849789866481</v>
+        <v>1.00769241792275</v>
       </c>
       <c r="N22">
-        <v>0.9315170685523949</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9939854690240557</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.014659944167828</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.017760831068086</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9006286580959797</v>
+        <v>0.9631470756200529</v>
       </c>
       <c r="D23">
-        <v>0.9410530974987785</v>
+        <v>0.9958718579157801</v>
       </c>
       <c r="E23">
-        <v>0.9181612905648741</v>
+        <v>0.9720614375993994</v>
       </c>
       <c r="F23">
-        <v>0.8561277971687764</v>
+        <v>0.9939130675127756</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.008879730242805</v>
+        <v>1.036522593768621</v>
       </c>
       <c r="J23">
-        <v>0.9356583235431253</v>
+        <v>0.9948920919012862</v>
       </c>
       <c r="K23">
-        <v>0.9575478701215632</v>
+        <v>1.011210820940264</v>
       </c>
       <c r="L23">
-        <v>0.9351937090020653</v>
+        <v>0.9878812614800254</v>
       </c>
       <c r="M23">
-        <v>0.8748162460809537</v>
+        <v>1.009290447419173</v>
       </c>
       <c r="N23">
-        <v>0.9369870656840664</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9963049527875041</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.015924723719002</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.019056795469415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9244370883752818</v>
+        <v>0.9752437610463742</v>
       </c>
       <c r="D24">
-        <v>0.9593088013114064</v>
+        <v>1.00430233368467</v>
       </c>
       <c r="E24">
-        <v>0.9386837858235336</v>
+        <v>0.9825771743111151</v>
       </c>
       <c r="F24">
-        <v>0.887341544445249</v>
+        <v>1.001393753205033</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.01741087143718</v>
+        <v>1.040147545907646</v>
       </c>
       <c r="J24">
-        <v>0.9551897153786412</v>
+        <v>1.003729251431279</v>
       </c>
       <c r="K24">
-        <v>0.9740902790924827</v>
+        <v>1.018254314441634</v>
       </c>
       <c r="L24">
-        <v>0.9538806244526835</v>
+        <v>0.9969173222465472</v>
       </c>
       <c r="M24">
-        <v>0.9036851556904983</v>
+        <v>1.015396437104479</v>
       </c>
       <c r="N24">
-        <v>0.9565461943362705</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.005154662097665</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.020757359972507</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.024029410392794</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9484363546424576</v>
+        <v>0.9883551633266556</v>
       </c>
       <c r="D25">
-        <v>0.9777809965531653</v>
+        <v>1.013465881755529</v>
       </c>
       <c r="E25">
-        <v>0.959415700529137</v>
+        <v>0.9939805336729691</v>
       </c>
       <c r="F25">
-        <v>0.9184594125893478</v>
+        <v>1.009606546978452</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025933814807561</v>
+        <v>1.044007937314003</v>
       </c>
       <c r="J25">
-        <v>0.9748330026477544</v>
+        <v>1.013280879880571</v>
       </c>
       <c r="K25">
-        <v>0.990734313280195</v>
+        <v>1.025858692800032</v>
       </c>
       <c r="L25">
-        <v>0.97267849830894</v>
+        <v>1.006673018389107</v>
       </c>
       <c r="M25">
-        <v>0.9324708030929545</v>
+        <v>1.022057541857141</v>
       </c>
       <c r="N25">
-        <v>0.9762173773264223</v>
+        <v>1.014719854954943</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.026029306932358</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.029403318442948</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_9_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_0/res_bus/vm_pu.xlsx
@@ -433,49 +433,49 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9980342968504132</v>
+        <v>1.035565196733436</v>
       </c>
       <c r="D2">
-        <v>1.020227969265646</v>
+        <v>1.052506594323207</v>
       </c>
       <c r="E2">
-        <v>1.002342692684421</v>
+        <v>1.046019483253214</v>
       </c>
       <c r="F2">
-        <v>1.01577072413432</v>
+        <v>1.054593056294336</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046782275101134</v>
+        <v>1.065330158533372</v>
       </c>
       <c r="J2">
-        <v>1.020273961143928</v>
+        <v>1.056731810427992</v>
       </c>
       <c r="K2">
-        <v>1.031412509617071</v>
+        <v>1.063279864856213</v>
       </c>
       <c r="L2">
-        <v>1.013769486278824</v>
+        <v>1.056872868115726</v>
       </c>
       <c r="M2">
-        <v>1.0270146344435</v>
+        <v>1.065340819912577</v>
       </c>
       <c r="N2">
-        <v>1.021722867195811</v>
+        <v>1.021984029841478</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.029952583034312</v>
+        <v>1.060285002143909</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.033281564413829</v>
+        <v>1.055814341708372</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -486,49 +486,49 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004825848129953</v>
+        <v>1.039605659917034</v>
       </c>
       <c r="D3">
-        <v>1.024987077111015</v>
+        <v>1.055382277311824</v>
       </c>
       <c r="E3">
-        <v>1.008245117487966</v>
+        <v>1.049209365126272</v>
       </c>
       <c r="F3">
-        <v>1.020117966595953</v>
+        <v>1.057606820170108</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04870362624981</v>
+        <v>1.066623524208951</v>
       </c>
       <c r="J3">
-        <v>1.025185814633748</v>
+        <v>1.059071925813034</v>
       </c>
       <c r="K3">
-        <v>1.035309922471375</v>
+        <v>1.065352375022737</v>
       </c>
       <c r="L3">
-        <v>1.018773576396162</v>
+        <v>1.059249062015334</v>
       </c>
       <c r="M3">
-        <v>1.030499746114026</v>
+        <v>1.067552081359167</v>
       </c>
       <c r="N3">
-        <v>1.026641696080985</v>
+        <v>1.022830302032908</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.032710850935052</v>
+        <v>1.062035018985806</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.036034737809099</v>
+        <v>1.057277118049068</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -539,49 +539,49 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009085692487845</v>
+        <v>1.042173608102015</v>
       </c>
       <c r="D4">
-        <v>1.02797409762945</v>
+        <v>1.057213510608407</v>
       </c>
       <c r="E4">
-        <v>1.011947723393485</v>
+        <v>1.051242147372299</v>
       </c>
       <c r="F4">
-        <v>1.0228611408862</v>
+        <v>1.05952870112283</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049892112496765</v>
+        <v>1.067436403938596</v>
       </c>
       <c r="J4">
-        <v>1.028259806579122</v>
+        <v>1.060556750183453</v>
       </c>
       <c r="K4">
-        <v>1.037746227913403</v>
+        <v>1.066667181015041</v>
       </c>
       <c r="L4">
-        <v>1.021904057246478</v>
+        <v>1.06075909154432</v>
       </c>
       <c r="M4">
-        <v>1.032691264740112</v>
+        <v>1.068958073775372</v>
       </c>
       <c r="N4">
-        <v>1.029720053447513</v>
+        <v>1.023367013581252</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.034445307860266</v>
+        <v>1.063147734936483</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.037758335329352</v>
+        <v>1.05820763118459</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -592,49 +592,49 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010860465115729</v>
+        <v>1.043247564821832</v>
       </c>
       <c r="D5">
-        <v>1.029220952309471</v>
+        <v>1.057982136168424</v>
       </c>
       <c r="E5">
-        <v>1.013496114626757</v>
+        <v>1.0520945333858</v>
       </c>
       <c r="F5">
-        <v>1.024004762544205</v>
+        <v>1.060334638757306</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050385349758661</v>
+        <v>1.067775942528165</v>
       </c>
       <c r="J5">
-        <v>1.029542504734472</v>
+        <v>1.061179181835219</v>
       </c>
       <c r="K5">
-        <v>1.038762958080233</v>
+        <v>1.067219390818416</v>
       </c>
       <c r="L5">
-        <v>1.023213751498289</v>
+        <v>1.061392516383939</v>
       </c>
       <c r="M5">
-        <v>1.033604292718157</v>
+        <v>1.069547858011476</v>
       </c>
       <c r="N5">
-        <v>1.031004573181371</v>
+        <v>1.023593385302602</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.035167914055624</v>
+        <v>1.063614495394155</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.038484441739408</v>
+        <v>1.058605067501569</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -645,49 +645,49 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011174354167958</v>
+        <v>1.043433574480708</v>
       </c>
       <c r="D6">
-        <v>1.029443916600213</v>
+        <v>1.058117673600773</v>
       </c>
       <c r="E6">
-        <v>1.013776903854914</v>
+        <v>1.052243420714478</v>
       </c>
       <c r="F6">
-        <v>1.024203495954631</v>
+        <v>1.060475111129831</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050474980873582</v>
+        <v>1.067836816270913</v>
       </c>
       <c r="J6">
-        <v>1.029773736564012</v>
+        <v>1.061289465849965</v>
       </c>
       <c r="K6">
-        <v>1.038947209148999</v>
+        <v>1.06731856406585</v>
       </c>
       <c r="L6">
-        <v>1.023454325624266</v>
+        <v>1.061504624503919</v>
       </c>
       <c r="M6">
-        <v>1.03376430367949</v>
+        <v>1.069652025640696</v>
       </c>
       <c r="N6">
-        <v>1.031236133386631</v>
+        <v>1.023635252741893</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.035294552937738</v>
+        <v>1.063696934547762</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.038623484279727</v>
+        <v>1.058683718592647</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -698,49 +698,49 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009157878763059</v>
+        <v>1.042205060410695</v>
       </c>
       <c r="D7">
-        <v>1.028031265494133</v>
+        <v>1.057242338162074</v>
       </c>
       <c r="E7">
-        <v>1.012029831323299</v>
+        <v>1.05127031275871</v>
       </c>
       <c r="F7">
-        <v>1.02289738356868</v>
+        <v>1.059554429141521</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049919311533003</v>
+        <v>1.067452260444957</v>
       </c>
       <c r="J7">
-        <v>1.028324184982368</v>
+        <v>1.060581763518865</v>
       </c>
       <c r="K7">
-        <v>1.03779985939827</v>
+        <v>1.066692918976129</v>
       </c>
       <c r="L7">
-        <v>1.021982249600057</v>
+        <v>1.060784149204693</v>
       </c>
       <c r="M7">
-        <v>1.032724182413771</v>
+        <v>1.068980754290043</v>
       </c>
       <c r="N7">
-        <v>1.029784523275475</v>
+        <v>1.023380922771308</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.034471360212696</v>
+        <v>1.063165684501419</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.037816422571041</v>
+        <v>1.058245453574531</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -751,49 +751,49 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000422998057984</v>
+        <v>1.036962222518345</v>
       </c>
       <c r="D8">
-        <v>1.021909238034081</v>
+        <v>1.053507949907164</v>
       </c>
       <c r="E8">
-        <v>1.004444794149336</v>
+        <v>1.047125493398266</v>
       </c>
       <c r="F8">
-        <v>1.017282794957548</v>
+        <v>1.055636437741642</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047470227810799</v>
+        <v>1.065786520688753</v>
       </c>
       <c r="J8">
-        <v>1.02201893715299</v>
+        <v>1.057549982173935</v>
       </c>
       <c r="K8">
-        <v>1.032800392690885</v>
+        <v>1.064008806057242</v>
       </c>
       <c r="L8">
-        <v>1.015564892615663</v>
+        <v>1.057702826323489</v>
       </c>
       <c r="M8">
-        <v>1.028233640150378</v>
+        <v>1.066112044372787</v>
       </c>
       <c r="N8">
-        <v>1.023470321270958</v>
+        <v>1.022286328017141</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.030917358042473</v>
+        <v>1.060895358186221</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.034285978964664</v>
+        <v>1.056352118857067</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -804,49 +804,49 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9838299771539655</v>
+        <v>1.027323440782428</v>
       </c>
       <c r="D9">
-        <v>1.010291247722007</v>
+        <v>1.046662354208743</v>
       </c>
       <c r="E9">
-        <v>0.9900072044196302</v>
+        <v>1.039544602489238</v>
       </c>
       <c r="F9">
-        <v>1.006776813612212</v>
+        <v>1.048482818761408</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042674631510305</v>
+        <v>1.062643834062978</v>
       </c>
       <c r="J9">
-        <v>1.009966952910881</v>
+        <v>1.051946908111231</v>
       </c>
       <c r="K9">
-        <v>1.023219534411108</v>
+        <v>1.059041160128559</v>
       </c>
       <c r="L9">
-        <v>1.003264515415472</v>
+        <v>1.052027098057023</v>
       </c>
       <c r="M9">
-        <v>1.019760890331666</v>
+        <v>1.060835390963105</v>
       </c>
       <c r="N9">
-        <v>1.011401221828844</v>
+        <v>1.020253366511715</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.024211621336735</v>
+        <v>1.056719343417385</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.027508309629069</v>
+        <v>1.052836702782935</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -857,49 +857,49 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.972318172295267</v>
+        <v>1.020717853512061</v>
       </c>
       <c r="D10">
-        <v>1.002263909463433</v>
+        <v>1.042013540743723</v>
       </c>
       <c r="E10">
-        <v>0.9801160008376619</v>
+        <v>1.034414131689916</v>
       </c>
       <c r="F10">
-        <v>0.9997968719731504</v>
+        <v>1.043673828406436</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039296535362348</v>
+        <v>1.060469692017761</v>
       </c>
       <c r="J10">
-        <v>1.00167482111987</v>
+        <v>1.048132925769054</v>
       </c>
       <c r="K10">
-        <v>1.016592408280079</v>
+        <v>1.055663514632277</v>
       </c>
       <c r="L10">
-        <v>0.9948537937777649</v>
+        <v>1.04818863772707</v>
       </c>
       <c r="M10">
-        <v>1.014169794928025</v>
+        <v>1.057296904902407</v>
       </c>
       <c r="N10">
-        <v>1.003097314259568</v>
+        <v>1.018892496927819</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.019839155359093</v>
+        <v>1.053969414351749</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.022839413356037</v>
+        <v>1.050465051871589</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -910,49 +910,49 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9705277986284085</v>
+        <v>1.018524006952121</v>
       </c>
       <c r="D11">
-        <v>1.001092198471612</v>
+        <v>1.040626800518025</v>
       </c>
       <c r="E11">
-        <v>0.9795222450953965</v>
+        <v>1.032975749258435</v>
       </c>
       <c r="F11">
-        <v>1.000389092270709</v>
+        <v>1.042528356296957</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038989145004961</v>
+        <v>1.059928407803935</v>
       </c>
       <c r="J11">
-        <v>1.001180217054233</v>
+        <v>1.047145966180465</v>
       </c>
       <c r="K11">
-        <v>1.015993546880683</v>
+        <v>1.054821176288087</v>
       </c>
       <c r="L11">
-        <v>0.9948409577526057</v>
+        <v>1.047301479420004</v>
       </c>
       <c r="M11">
-        <v>1.015303674609895</v>
+        <v>1.056690471903235</v>
       </c>
       <c r="N11">
-        <v>1.002602007799426</v>
+        <v>1.018729961387149</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.021181608748391</v>
+        <v>1.053918071676283</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.022449386757721</v>
+        <v>1.049901698854641</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -963,49 +963,49 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.971002910046967</v>
+        <v>1.017959962263147</v>
       </c>
       <c r="D12">
-        <v>1.001470170822472</v>
+        <v>1.04033848410606</v>
       </c>
       <c r="E12">
-        <v>0.980619706701918</v>
+        <v>1.032730859916139</v>
       </c>
       <c r="F12">
-        <v>1.001846826566303</v>
+        <v>1.042447205767273</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039284038361803</v>
+        <v>1.059874173160044</v>
       </c>
       <c r="J12">
-        <v>1.002087278051733</v>
+        <v>1.047023204945206</v>
       </c>
       <c r="K12">
-        <v>1.016569258777887</v>
+        <v>1.054731624282192</v>
       </c>
       <c r="L12">
-        <v>0.9961278658058315</v>
+        <v>1.047256751776661</v>
       </c>
       <c r="M12">
-        <v>1.016938729620793</v>
+        <v>1.056803992529297</v>
       </c>
       <c r="N12">
-        <v>1.003510356927584</v>
+        <v>1.018830403412438</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.022806809282695</v>
+        <v>1.054329073355298</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.022856446569387</v>
+        <v>1.049838384999513</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1016,49 +1016,49 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.973295008747144</v>
+        <v>1.018637827407471</v>
       </c>
       <c r="D13">
-        <v>1.003102440293322</v>
+        <v>1.040902611205236</v>
       </c>
       <c r="E13">
-        <v>0.9831452414563635</v>
+        <v>1.033412660487079</v>
       </c>
       <c r="F13">
-        <v>1.004103644712397</v>
+        <v>1.043208759878411</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040086511864439</v>
+        <v>1.060211913495713</v>
       </c>
       <c r="J13">
-        <v>1.004177273411232</v>
+        <v>1.047584005524592</v>
       </c>
       <c r="K13">
-        <v>1.018126607812662</v>
+        <v>1.055244458869559</v>
       </c>
       <c r="L13">
-        <v>0.9985574896464293</v>
+        <v>1.047884569269628</v>
       </c>
       <c r="M13">
-        <v>1.019108874184586</v>
+        <v>1.057511047716263</v>
       </c>
       <c r="N13">
-        <v>1.005603320320219</v>
+        <v>1.019155771900578</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.02480313165926</v>
+        <v>1.055160889419963</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.023955045109004</v>
+        <v>1.050198519393656</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1069,49 +1069,49 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9756700848390266</v>
+        <v>1.019674155710093</v>
       </c>
       <c r="D14">
-        <v>1.00477784803516</v>
+        <v>1.041684030275626</v>
       </c>
       <c r="E14">
-        <v>0.9855059882995306</v>
+        <v>1.034308330757743</v>
       </c>
       <c r="F14">
-        <v>1.005998263165293</v>
+        <v>1.044123059475141</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040860224804682</v>
+        <v>1.060625550945099</v>
       </c>
       <c r="J14">
-        <v>1.006128409904641</v>
+        <v>1.048285287309887</v>
       </c>
       <c r="K14">
-        <v>1.019627071527976</v>
+        <v>1.055876447274626</v>
       </c>
       <c r="L14">
-        <v>1.00072385186049</v>
+        <v>1.048627162141194</v>
       </c>
       <c r="M14">
-        <v>1.020824762322152</v>
+        <v>1.05827418014624</v>
       </c>
       <c r="N14">
-        <v>1.007557227651247</v>
+        <v>1.019484640842994</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.026334701447065</v>
+        <v>1.055935310752139</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.025017397503929</v>
+        <v>1.050646735457857</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1122,49 +1122,49 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9766890399037614</v>
+        <v>1.020206481934679</v>
       </c>
       <c r="D15">
-        <v>1.005493490962952</v>
+        <v>1.042071056220756</v>
       </c>
       <c r="E15">
-        <v>0.9864437308592338</v>
+        <v>1.034740368777342</v>
       </c>
       <c r="F15">
-        <v>1.006697998603396</v>
+        <v>1.044544898284234</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041176804988454</v>
+        <v>1.060818784676824</v>
       </c>
       <c r="J15">
-        <v>1.006907618658961</v>
+        <v>1.048615999005555</v>
       </c>
       <c r="K15">
-        <v>1.020241190380482</v>
+        <v>1.056173145744606</v>
       </c>
       <c r="L15">
-        <v>1.001552530203547</v>
+        <v>1.048967121050047</v>
       </c>
       <c r="M15">
-        <v>1.02142346443611</v>
+        <v>1.058605427611782</v>
       </c>
       <c r="N15">
-        <v>1.008337542971374</v>
+        <v>1.019620007507008</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.02684579976786</v>
+        <v>1.056234242521014</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.025457561006672</v>
+        <v>1.050862254658739</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1175,49 +1175,49 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9810237937640245</v>
+        <v>1.022878633368378</v>
       </c>
       <c r="D16">
-        <v>1.008510847687537</v>
+        <v>1.043940663850896</v>
       </c>
       <c r="E16">
-        <v>0.9900205441728958</v>
+        <v>1.036787747280784</v>
       </c>
       <c r="F16">
-        <v>1.009205213021962</v>
+        <v>1.046460895492113</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042436497964476</v>
+        <v>1.061694658532362</v>
       </c>
       <c r="J16">
-        <v>1.009931801319519</v>
+        <v>1.050139060159627</v>
       </c>
       <c r="K16">
-        <v>1.022691886422416</v>
+        <v>1.05752494292224</v>
       </c>
       <c r="L16">
-        <v>1.004535133840102</v>
+        <v>1.050488280861278</v>
       </c>
       <c r="M16">
-        <v>1.023374034552505</v>
+        <v>1.060004699405692</v>
       </c>
       <c r="N16">
-        <v>1.01136602031819</v>
+        <v>1.020139365581863</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.028348437766934</v>
+        <v>1.057301978856066</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.027193523185896</v>
+        <v>1.05182108522901</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1228,49 +1228,49 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9831433025220521</v>
+        <v>1.02438794383681</v>
       </c>
       <c r="D17">
-        <v>1.009975796202421</v>
+        <v>1.044967204936343</v>
       </c>
       <c r="E17">
-        <v>0.9915735396652389</v>
+        <v>1.037891582732093</v>
       </c>
       <c r="F17">
-        <v>1.01015738091686</v>
+        <v>1.047449683078054</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043007774849729</v>
+        <v>1.062147790718342</v>
       </c>
       <c r="J17">
-        <v>1.011265033981812</v>
+        <v>1.050940146768604</v>
       </c>
       <c r="K17">
-        <v>1.023811145572111</v>
+        <v>1.058230201750592</v>
       </c>
       <c r="L17">
-        <v>1.00573094619524</v>
+        <v>1.051266325578134</v>
       </c>
       <c r="M17">
-        <v>1.023989627906372</v>
+        <v>1.06067393112591</v>
       </c>
       <c r="N17">
-        <v>1.012701146323787</v>
+        <v>1.020366058136936</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.028704746626985</v>
+        <v>1.05770356898608</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.027987507225219</v>
+        <v>1.052322241919361</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1281,49 +1281,49 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9834017480067445</v>
+        <v>1.025011397817174</v>
       </c>
       <c r="D18">
-        <v>1.01012523344355</v>
+        <v>1.045331760955232</v>
       </c>
       <c r="E18">
-        <v>0.9913466192668645</v>
+        <v>1.038248433006738</v>
       </c>
       <c r="F18">
-        <v>1.009640145389163</v>
+        <v>1.04768420629038</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042983199082719</v>
+        <v>1.06226021094127</v>
       </c>
       <c r="J18">
-        <v>1.011106822759706</v>
+        <v>1.051161703144845</v>
       </c>
       <c r="K18">
-        <v>1.023771451365815</v>
+        <v>1.058411342100303</v>
       </c>
       <c r="L18">
-        <v>1.005316412022429</v>
+        <v>1.05143806755406</v>
       </c>
       <c r="M18">
-        <v>1.023294526548452</v>
+        <v>1.060727657546706</v>
       </c>
       <c r="N18">
-        <v>1.012542710423599</v>
+        <v>1.020341318433129</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.027914880964076</v>
+        <v>1.05751179042951</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.027947675655586</v>
+        <v>1.052438918100459</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1334,49 +1334,49 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.981940469624128</v>
+        <v>1.024851927419678</v>
       </c>
       <c r="D19">
-        <v>1.009065968647237</v>
+        <v>1.045118758268057</v>
       </c>
       <c r="E19">
-        <v>0.9894995744642795</v>
+        <v>1.03794654413924</v>
       </c>
       <c r="F19">
-        <v>1.007676678029154</v>
+        <v>1.047250129382965</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042412717118881</v>
+        <v>1.062079182054671</v>
       </c>
       <c r="J19">
-        <v>1.009564812533685</v>
+        <v>1.050878514202986</v>
       </c>
       <c r="K19">
-        <v>1.022666311329779</v>
+        <v>1.058141003486537</v>
       </c>
       <c r="L19">
-        <v>1.003436522840021</v>
+        <v>1.051079702664253</v>
       </c>
       <c r="M19">
-        <v>1.021300365010518</v>
+        <v>1.060239787815603</v>
       </c>
       <c r="N19">
-        <v>1.010998510366185</v>
+        <v>1.020107765808885</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.02600796948476</v>
+        <v>1.056805869957668</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.027172763870868</v>
+        <v>1.052254048653083</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1387,49 +1387,49 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9755030342653205</v>
+        <v>1.022478918766975</v>
       </c>
       <c r="D20">
-        <v>1.004498249179649</v>
+        <v>1.043267795809174</v>
       </c>
       <c r="E20">
-        <v>0.9829224150741084</v>
+        <v>1.035790818999105</v>
       </c>
       <c r="F20">
-        <v>1.001703062901288</v>
+        <v>1.044961994049979</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040254977949104</v>
+        <v>1.061068107360786</v>
       </c>
       <c r="J20">
-        <v>1.004012063854953</v>
+        <v>1.04916999559119</v>
       </c>
       <c r="K20">
-        <v>1.018462460782617</v>
+        <v>1.056590231904606</v>
       </c>
       <c r="L20">
-        <v>0.9972723505243904</v>
+        <v>1.049232229226231</v>
       </c>
       <c r="M20">
-        <v>1.015716031959096</v>
+        <v>1.05825777467022</v>
       </c>
       <c r="N20">
-        <v>1.005437876147421</v>
+        <v>1.019278270000846</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.021052077128908</v>
+        <v>1.054719471864928</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.024204425267942</v>
+        <v>1.051161483102002</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1440,49 +1440,49 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9660322925268653</v>
+        <v>1.017374164626802</v>
       </c>
       <c r="D21">
-        <v>0.9978884357112578</v>
+        <v>1.039651823245303</v>
       </c>
       <c r="E21">
-        <v>0.9746074984499109</v>
+        <v>1.031787619984498</v>
       </c>
       <c r="F21">
-        <v>0.9956723945727689</v>
+        <v>1.041172575343328</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037400751528685</v>
+        <v>1.059333845950395</v>
       </c>
       <c r="J21">
-        <v>0.9970221897044727</v>
+        <v>1.046163020520679</v>
       </c>
       <c r="K21">
-        <v>1.012909923056339</v>
+        <v>1.053919002406907</v>
       </c>
       <c r="L21">
-        <v>0.9900864551886294</v>
+        <v>1.046190794385454</v>
       </c>
       <c r="M21">
-        <v>1.010736221228123</v>
+        <v>1.055413762406296</v>
       </c>
       <c r="N21">
-        <v>0.9984380755738967</v>
+        <v>1.018168708419715</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.017068996591379</v>
+        <v>1.052428569587941</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.020281785252614</v>
+        <v>1.049276067919865</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1493,49 +1493,49 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9599724758478506</v>
+        <v>1.014123989659561</v>
       </c>
       <c r="D22">
-        <v>0.9936660442728846</v>
+        <v>1.03735813680763</v>
       </c>
       <c r="E22">
-        <v>0.9693143804275064</v>
+        <v>1.029258009857409</v>
       </c>
       <c r="F22">
-        <v>0.9919599863038132</v>
+        <v>1.038794134788002</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03556542043094</v>
+        <v>1.058226438297678</v>
       </c>
       <c r="J22">
-        <v>0.9925758973997013</v>
+        <v>1.04425654514589</v>
       </c>
       <c r="K22">
-        <v>1.009364031069235</v>
+        <v>1.052224153902618</v>
       </c>
       <c r="L22">
-        <v>0.9855192599423426</v>
+        <v>1.044271319328933</v>
       </c>
       <c r="M22">
-        <v>1.00769241792275</v>
+        <v>1.053634351153395</v>
       </c>
       <c r="N22">
-        <v>0.9939854690240557</v>
+        <v>1.01746966179822</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.014659944167828</v>
+        <v>1.051020306376099</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.017760831068086</v>
+        <v>1.048064533395496</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1546,49 +1546,49 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9631470756200529</v>
+        <v>1.015836044412137</v>
       </c>
       <c r="D23">
-        <v>0.9958718579157801</v>
+        <v>1.038560233665586</v>
       </c>
       <c r="E23">
-        <v>0.9720614375993994</v>
+        <v>1.030586053016482</v>
       </c>
       <c r="F23">
-        <v>0.9939130675127756</v>
+        <v>1.040043979371543</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036522593768621</v>
+        <v>1.058805538773624</v>
       </c>
       <c r="J23">
-        <v>0.9948920919012862</v>
+        <v>1.045254470209738</v>
       </c>
       <c r="K23">
-        <v>1.011210820940264</v>
+        <v>1.053108599200668</v>
       </c>
       <c r="L23">
-        <v>0.9878812614800254</v>
+        <v>1.045275641830692</v>
       </c>
       <c r="M23">
-        <v>1.009290447419173</v>
+        <v>1.054566377162138</v>
       </c>
       <c r="N23">
-        <v>0.9963049527875041</v>
+        <v>1.01783010483853</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.015924723719002</v>
+        <v>1.051757931545498</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.019056795469415</v>
+        <v>1.048680395532853</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1599,49 +1599,49 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9752437610463742</v>
+        <v>1.022466219806344</v>
       </c>
       <c r="D24">
-        <v>1.00430233368467</v>
+        <v>1.043235711938649</v>
       </c>
       <c r="E24">
-        <v>0.9825771743111151</v>
+        <v>1.035750832816552</v>
       </c>
       <c r="F24">
-        <v>1.001393753205033</v>
+        <v>1.044905889967561</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040147545907646</v>
+        <v>1.061037923404012</v>
       </c>
       <c r="J24">
-        <v>1.003729251431279</v>
+        <v>1.049126060042866</v>
       </c>
       <c r="K24">
-        <v>1.018254314441634</v>
+        <v>1.056543842687171</v>
       </c>
       <c r="L24">
-        <v>0.9969173222465472</v>
+        <v>1.049177922185775</v>
       </c>
       <c r="M24">
-        <v>1.015396437104479</v>
+        <v>1.058187773778843</v>
       </c>
       <c r="N24">
-        <v>1.005154662097665</v>
+        <v>1.019237304210957</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.020757359972507</v>
+        <v>1.054623974846132</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.024029410392794</v>
+        <v>1.051101830586913</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1652,49 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9883551633266556</v>
+        <v>1.029890206018697</v>
       </c>
       <c r="D25">
-        <v>1.013465881755529</v>
+        <v>1.048491310344359</v>
       </c>
       <c r="E25">
-        <v>0.9939805336729691</v>
+        <v>1.041563598161459</v>
       </c>
       <c r="F25">
-        <v>1.009606546978452</v>
+        <v>1.050384845054432</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044007937314003</v>
+        <v>1.063497865184081</v>
       </c>
       <c r="J25">
-        <v>1.013280879880571</v>
+        <v>1.053451881734667</v>
       </c>
       <c r="K25">
-        <v>1.025858692800032</v>
+        <v>1.060380767338165</v>
       </c>
       <c r="L25">
-        <v>1.006673018389107</v>
+        <v>1.053549222321412</v>
       </c>
       <c r="M25">
-        <v>1.022057541857141</v>
+        <v>1.062248294980812</v>
       </c>
       <c r="N25">
-        <v>1.014719854954943</v>
+        <v>1.020808163727723</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.026029306932358</v>
+        <v>1.057837536960978</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.029403318442948</v>
+        <v>1.053811819984748</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_9_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_0/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035565196733436</v>
+        <v>1.032521182753006</v>
       </c>
       <c r="D2">
-        <v>1.052506594323207</v>
+        <v>1.048533853772168</v>
       </c>
       <c r="E2">
-        <v>1.046019483253214</v>
+        <v>1.043399946337769</v>
       </c>
       <c r="F2">
-        <v>1.054593056294336</v>
+        <v>1.051780679810741</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.065330158533372</v>
+        <v>1.063061897917229</v>
       </c>
       <c r="J2">
-        <v>1.056731810427992</v>
+        <v>1.053770870459835</v>
       </c>
       <c r="K2">
-        <v>1.063279864856213</v>
+        <v>1.059356040266597</v>
       </c>
       <c r="L2">
-        <v>1.056872868115726</v>
+        <v>1.054286033840687</v>
       </c>
       <c r="M2">
-        <v>1.065340819912577</v>
+        <v>1.062562854135057</v>
       </c>
       <c r="N2">
-        <v>1.021984029841478</v>
+        <v>1.020974143868854</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.060285002143909</v>
+        <v>1.058086483596612</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.055814341708372</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.053048559358175</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.027492722664301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039605659917034</v>
+        <v>1.036317476909082</v>
       </c>
       <c r="D3">
-        <v>1.055382277311824</v>
+        <v>1.051132830766511</v>
       </c>
       <c r="E3">
-        <v>1.049209365126272</v>
+        <v>1.046364425929408</v>
       </c>
       <c r="F3">
-        <v>1.057606820170108</v>
+        <v>1.054581391739834</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.066623524208951</v>
+        <v>1.064185586502558</v>
       </c>
       <c r="J3">
-        <v>1.059071925813034</v>
+        <v>1.055864778120644</v>
       </c>
       <c r="K3">
-        <v>1.065352375022737</v>
+        <v>1.061150732660843</v>
       </c>
       <c r="L3">
-        <v>1.059249062015334</v>
+        <v>1.056436540382443</v>
       </c>
       <c r="M3">
-        <v>1.067552081359167</v>
+        <v>1.064560462742082</v>
       </c>
       <c r="N3">
-        <v>1.022830302032908</v>
+        <v>1.021560942024234</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.062035018985806</v>
+        <v>1.059667417878175</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.057277118049068</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.054314629004242</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.027891022925836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042173608102015</v>
+        <v>1.038732026563232</v>
       </c>
       <c r="D4">
-        <v>1.057213510608407</v>
+        <v>1.052789356384062</v>
       </c>
       <c r="E4">
-        <v>1.051242147372299</v>
+        <v>1.048255555499284</v>
       </c>
       <c r="F4">
-        <v>1.05952870112283</v>
+        <v>1.056369111771793</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.067436403938596</v>
+        <v>1.064891210762062</v>
       </c>
       <c r="J4">
-        <v>1.060556750183453</v>
+        <v>1.057194301970576</v>
       </c>
       <c r="K4">
-        <v>1.066667181015041</v>
+        <v>1.062289821696556</v>
       </c>
       <c r="L4">
-        <v>1.06075909154432</v>
+        <v>1.057804477536714</v>
       </c>
       <c r="M4">
-        <v>1.068958073775372</v>
+        <v>1.065831676492567</v>
       </c>
       <c r="N4">
-        <v>1.023367013581252</v>
+        <v>1.021933647893668</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.063147734936483</v>
+        <v>1.060673471827967</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.05820763118459</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.055120986886927</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.028141587827589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.043247564821832</v>
+        <v>1.039741799860079</v>
       </c>
       <c r="D5">
-        <v>1.057982136168424</v>
+        <v>1.053484967737036</v>
       </c>
       <c r="E5">
-        <v>1.0520945333858</v>
+        <v>1.049048594971379</v>
       </c>
       <c r="F5">
-        <v>1.060334638757306</v>
+        <v>1.057118917523524</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.067775942528165</v>
+        <v>1.065185837985396</v>
       </c>
       <c r="J5">
-        <v>1.061179181835219</v>
+        <v>1.057751641269235</v>
       </c>
       <c r="K5">
-        <v>1.067219390818416</v>
+        <v>1.062768534231939</v>
       </c>
       <c r="L5">
-        <v>1.061392516383939</v>
+        <v>1.058378322462778</v>
       </c>
       <c r="M5">
-        <v>1.069547858011476</v>
+        <v>1.06636502434102</v>
       </c>
       <c r="N5">
-        <v>1.023593385302602</v>
+        <v>1.02209082978832</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.063614495394155</v>
+        <v>1.061095569382118</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.058605067501569</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.055467175923416</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.028247316135643</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.043433574480708</v>
+        <v>1.039916183602786</v>
       </c>
       <c r="D6">
-        <v>1.058117673600773</v>
+        <v>1.053607612947787</v>
       </c>
       <c r="E6">
-        <v>1.052243420714478</v>
+        <v>1.049186642466065</v>
       </c>
       <c r="F6">
-        <v>1.060475111129831</v>
+        <v>1.057249305297213</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.067836816270913</v>
+        <v>1.06523871000795</v>
       </c>
       <c r="J6">
-        <v>1.061289465849965</v>
+        <v>1.057850158753907</v>
       </c>
       <c r="K6">
-        <v>1.06731856406585</v>
+        <v>1.062854736896808</v>
       </c>
       <c r="L6">
-        <v>1.061504624503919</v>
+        <v>1.058479557607375</v>
       </c>
       <c r="M6">
-        <v>1.069652025640696</v>
+        <v>1.066459060202924</v>
       </c>
       <c r="N6">
-        <v>1.023635252741893</v>
+        <v>1.022119726974912</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.063696934547762</v>
+        <v>1.061169990409087</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.058683718592647</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.055537533531417</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.028267498444002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.042205060410695</v>
+        <v>1.038769501610004</v>
       </c>
       <c r="D7">
-        <v>1.057242338162074</v>
+        <v>1.052822388300612</v>
       </c>
       <c r="E7">
-        <v>1.05127031275871</v>
+        <v>1.048288888270968</v>
       </c>
       <c r="F7">
-        <v>1.059554429141521</v>
+        <v>1.056398968166959</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.067452260444957</v>
+        <v>1.064910153701871</v>
       </c>
       <c r="J7">
-        <v>1.060581763518865</v>
+        <v>1.057225163985764</v>
       </c>
       <c r="K7">
-        <v>1.066692918976129</v>
+        <v>1.062319700711794</v>
       </c>
       <c r="L7">
-        <v>1.060784149204693</v>
+        <v>1.05783463437549</v>
       </c>
       <c r="M7">
-        <v>1.068980754290043</v>
+        <v>1.065858428913818</v>
       </c>
       <c r="N7">
-        <v>1.023380922771308</v>
+        <v>1.021972308282156</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.063165684501419</v>
+        <v>1.06069464400393</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.058245453574531</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.055163754865527</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.028152851776682</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036962222518345</v>
+        <v>1.033860241736042</v>
       </c>
       <c r="D8">
-        <v>1.053507949907164</v>
+        <v>1.04946006816709</v>
       </c>
       <c r="E8">
-        <v>1.047125493398266</v>
+        <v>1.04445184572924</v>
       </c>
       <c r="F8">
-        <v>1.055636437741642</v>
+        <v>1.052769751926325</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.065786520688753</v>
+        <v>1.063474076801144</v>
       </c>
       <c r="J8">
-        <v>1.057549982173935</v>
+        <v>1.054529835103126</v>
       </c>
       <c r="K8">
-        <v>1.064008806057242</v>
+        <v>1.060009293546297</v>
       </c>
       <c r="L8">
-        <v>1.057702826323489</v>
+        <v>1.055061560287218</v>
       </c>
       <c r="M8">
-        <v>1.066112044372787</v>
+        <v>1.063279394624131</v>
       </c>
       <c r="N8">
-        <v>1.022286328017141</v>
+        <v>1.021273010278309</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.060895358186221</v>
+        <v>1.058653563736903</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.056352118857067</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.053535109111746</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.027646967386691</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027323440782428</v>
+        <v>1.024821215942348</v>
       </c>
       <c r="D9">
-        <v>1.046662354208743</v>
+        <v>1.043285941143764</v>
       </c>
       <c r="E9">
-        <v>1.039544602489238</v>
+        <v>1.03742453246636</v>
       </c>
       <c r="F9">
-        <v>1.048482818761408</v>
+        <v>1.046136587849943</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.062643834062978</v>
+        <v>1.060742841499023</v>
       </c>
       <c r="J9">
-        <v>1.051946908111231</v>
+        <v>1.049526923672382</v>
       </c>
       <c r="K9">
-        <v>1.059041160128559</v>
+        <v>1.055713710090552</v>
       </c>
       <c r="L9">
-        <v>1.052027098057023</v>
+        <v>1.049938262050976</v>
       </c>
       <c r="M9">
-        <v>1.060835390963105</v>
+        <v>1.058522991835642</v>
       </c>
       <c r="N9">
-        <v>1.020253366511715</v>
+        <v>1.019878859052887</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.056719343417385</v>
+        <v>1.054889272348292</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.052836702782935</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.050494578955826</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.026678546937088</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.020717853512061</v>
+        <v>1.018668027602917</v>
       </c>
       <c r="D10">
-        <v>1.042013540743723</v>
+        <v>1.039127589883254</v>
       </c>
       <c r="E10">
-        <v>1.034414131689916</v>
+        <v>1.032708907647989</v>
       </c>
       <c r="F10">
-        <v>1.043673828406436</v>
+        <v>1.041713609922306</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.060469692017761</v>
+        <v>1.058870488498088</v>
       </c>
       <c r="J10">
-        <v>1.048132925769054</v>
+        <v>1.046160070008032</v>
       </c>
       <c r="K10">
-        <v>1.055663514632277</v>
+        <v>1.052824580359233</v>
       </c>
       <c r="L10">
-        <v>1.04818863772707</v>
+        <v>1.046511681528071</v>
       </c>
       <c r="M10">
-        <v>1.057296904902407</v>
+        <v>1.055368454566083</v>
       </c>
       <c r="N10">
-        <v>1.018892496927819</v>
+        <v>1.019071908917935</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.053969414351749</v>
+        <v>1.052443293336037</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.050465051871589</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.048470014577502</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.026036101823086</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.018524006952121</v>
+        <v>1.016595219724829</v>
       </c>
       <c r="D11">
-        <v>1.040626800518025</v>
+        <v>1.037884133715232</v>
       </c>
       <c r="E11">
-        <v>1.032975749258435</v>
+        <v>1.03136487986183</v>
       </c>
       <c r="F11">
-        <v>1.042528356296957</v>
+        <v>1.040671219454196</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.059928407803935</v>
+        <v>1.058414860233744</v>
       </c>
       <c r="J11">
-        <v>1.047145966180465</v>
+        <v>1.045293551229458</v>
       </c>
       <c r="K11">
-        <v>1.054821176288087</v>
+        <v>1.052125308253224</v>
       </c>
       <c r="L11">
-        <v>1.047301479420004</v>
+        <v>1.045718587185201</v>
       </c>
       <c r="M11">
-        <v>1.056690471903235</v>
+        <v>1.054864839914376</v>
       </c>
       <c r="N11">
-        <v>1.018729961387149</v>
+        <v>1.019178415649246</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.053918071676283</v>
+        <v>1.052474020230755</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.049901698854641</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.048011046227554</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.025987984227104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.017959962263147</v>
+        <v>1.016027539062718</v>
       </c>
       <c r="D12">
-        <v>1.04033848410606</v>
+        <v>1.037607362672915</v>
       </c>
       <c r="E12">
-        <v>1.032730859916139</v>
+        <v>1.031102896263412</v>
       </c>
       <c r="F12">
-        <v>1.042447205767273</v>
+        <v>1.040588884188161</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.059874173160044</v>
+        <v>1.058364756683592</v>
       </c>
       <c r="J12">
-        <v>1.047023204945206</v>
+        <v>1.045168739942134</v>
       </c>
       <c r="K12">
-        <v>1.054731624282192</v>
+        <v>1.052047870468025</v>
       </c>
       <c r="L12">
-        <v>1.047256751776661</v>
+        <v>1.045657525820842</v>
       </c>
       <c r="M12">
-        <v>1.056803992529297</v>
+        <v>1.054977697607768</v>
       </c>
       <c r="N12">
-        <v>1.018830403412438</v>
+        <v>1.019328751846393</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.054329073355298</v>
+        <v>1.052884971657731</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.049838384999513</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.047956298065633</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.026044827171823</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.018637827407471</v>
+        <v>1.016589758616941</v>
       </c>
       <c r="D13">
-        <v>1.040902611205236</v>
+        <v>1.038070398661503</v>
       </c>
       <c r="E13">
-        <v>1.033412660487079</v>
+        <v>1.031667014543794</v>
       </c>
       <c r="F13">
-        <v>1.043208759878411</v>
+        <v>1.041257725414639</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.060211913495713</v>
+        <v>1.058635785452725</v>
       </c>
       <c r="J13">
-        <v>1.047584005524592</v>
+        <v>1.045618117360863</v>
       </c>
       <c r="K13">
-        <v>1.055244458869559</v>
+        <v>1.052461141456056</v>
       </c>
       <c r="L13">
-        <v>1.047884569269628</v>
+        <v>1.046169587799027</v>
       </c>
       <c r="M13">
-        <v>1.057511047716263</v>
+        <v>1.055593466670831</v>
       </c>
       <c r="N13">
-        <v>1.019155771900578</v>
+        <v>1.019496146412611</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.055160889419963</v>
+        <v>1.053644976314934</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.050198519393656</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.048245791714104</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.026194684341984</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.019674155710093</v>
+        <v>1.017496622729436</v>
       </c>
       <c r="D14">
-        <v>1.041684030275626</v>
+        <v>1.038731784160116</v>
       </c>
       <c r="E14">
-        <v>1.034308330757743</v>
+        <v>1.032437579615483</v>
       </c>
       <c r="F14">
-        <v>1.044123059475141</v>
+        <v>1.04206763629938</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.060625550945099</v>
+        <v>1.05897179401615</v>
       </c>
       <c r="J14">
-        <v>1.048285287309887</v>
+        <v>1.046193852672884</v>
       </c>
       <c r="K14">
-        <v>1.055876447274626</v>
+        <v>1.052974522203654</v>
       </c>
       <c r="L14">
-        <v>1.048627162141194</v>
+        <v>1.046788846067712</v>
       </c>
       <c r="M14">
-        <v>1.05827418014624</v>
+        <v>1.056253541751132</v>
       </c>
       <c r="N14">
-        <v>1.019484640842994</v>
+        <v>1.019623488029588</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.055935310752139</v>
+        <v>1.05433813840965</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.050646735457857</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.048610285340054</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.026342900310645</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.020206481934679</v>
+        <v>1.01797252935616</v>
       </c>
       <c r="D15">
-        <v>1.042071056220756</v>
+        <v>1.039064541673415</v>
       </c>
       <c r="E15">
-        <v>1.034740368777342</v>
+        <v>1.032816949356786</v>
       </c>
       <c r="F15">
-        <v>1.044544898284234</v>
+        <v>1.042443775310572</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.060818784676824</v>
+        <v>1.059130336422756</v>
       </c>
       <c r="J15">
-        <v>1.048615999005555</v>
+        <v>1.046469596327646</v>
       </c>
       <c r="K15">
-        <v>1.056173145744606</v>
+        <v>1.053217484112177</v>
       </c>
       <c r="L15">
-        <v>1.048967121050047</v>
+        <v>1.047076789540631</v>
       </c>
       <c r="M15">
-        <v>1.058605427611782</v>
+        <v>1.056539586929808</v>
       </c>
       <c r="N15">
-        <v>1.019620007507008</v>
+        <v>1.019665951216692</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.056234242521014</v>
+        <v>1.054601383167341</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.050862254658739</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.048788385169291</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.026404049238468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.022878633368378</v>
+        <v>1.020415709569401</v>
       </c>
       <c r="D16">
-        <v>1.043940663850896</v>
+        <v>1.040700664863153</v>
       </c>
       <c r="E16">
-        <v>1.036787747280784</v>
+        <v>1.034659674783426</v>
       </c>
       <c r="F16">
-        <v>1.046460895492113</v>
+        <v>1.044171874238258</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.061694658532362</v>
+        <v>1.059859603130763</v>
       </c>
       <c r="J16">
-        <v>1.050139060159627</v>
+        <v>1.047767828247588</v>
       </c>
       <c r="K16">
-        <v>1.05752494292224</v>
+        <v>1.054337348513944</v>
       </c>
       <c r="L16">
-        <v>1.050488280861278</v>
+        <v>1.048395194513986</v>
       </c>
       <c r="M16">
-        <v>1.060004699405692</v>
+        <v>1.057752429604589</v>
       </c>
       <c r="N16">
-        <v>1.020139365581863</v>
+        <v>1.019798303846291</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.057301978856066</v>
+        <v>1.055521713914513</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.05182108522901</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.049583538471084</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.026639335907838</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02438794383681</v>
+        <v>1.021826239386192</v>
       </c>
       <c r="D17">
-        <v>1.044967204936343</v>
+        <v>1.041617698737508</v>
       </c>
       <c r="E17">
-        <v>1.037891582732093</v>
+        <v>1.035679164367736</v>
       </c>
       <c r="F17">
-        <v>1.047449683078054</v>
+        <v>1.045077281613506</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.062147790718342</v>
+        <v>1.06024564414674</v>
       </c>
       <c r="J17">
-        <v>1.050940146768604</v>
+        <v>1.048470756388618</v>
       </c>
       <c r="K17">
-        <v>1.058230201750592</v>
+        <v>1.054933352399063</v>
       </c>
       <c r="L17">
-        <v>1.051266325578134</v>
+        <v>1.049089249965783</v>
       </c>
       <c r="M17">
-        <v>1.06067393112591</v>
+        <v>1.058338555263096</v>
       </c>
       <c r="N17">
-        <v>1.020366058136936</v>
+        <v>1.019862652547439</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.05770356898608</v>
+        <v>1.055857434058392</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.052322241919361</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.050007700458122</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.026743455489898</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025011397817174</v>
+        <v>1.022446579196373</v>
       </c>
       <c r="D18">
-        <v>1.045331760955232</v>
+        <v>1.041964399751387</v>
       </c>
       <c r="E18">
-        <v>1.038248433006738</v>
+        <v>1.036041680882267</v>
       </c>
       <c r="F18">
-        <v>1.04768420629038</v>
+        <v>1.045305875680524</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.06226021094127</v>
+        <v>1.060349759512533</v>
       </c>
       <c r="J18">
-        <v>1.051161703144845</v>
+        <v>1.048687603613546</v>
       </c>
       <c r="K18">
-        <v>1.058411342100303</v>
+        <v>1.055096061050147</v>
       </c>
       <c r="L18">
-        <v>1.05143806755406</v>
+        <v>1.04926599513074</v>
       </c>
       <c r="M18">
-        <v>1.060727657546706</v>
+        <v>1.058385855537708</v>
       </c>
       <c r="N18">
-        <v>1.020341318433129</v>
+        <v>1.019821588735421</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.05751179042951</v>
+        <v>1.055660199675296</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.052438918100459</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.050110201118229</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02672848365837</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024851927419678</v>
+        <v>1.022360396090478</v>
       </c>
       <c r="D19">
-        <v>1.045118758268057</v>
+        <v>1.041809146887436</v>
       </c>
       <c r="E19">
-        <v>1.03794654413924</v>
+        <v>1.035817419722581</v>
       </c>
       <c r="F19">
-        <v>1.047250129382965</v>
+        <v>1.044928683102434</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.062079182054671</v>
+        <v>1.060208428942359</v>
       </c>
       <c r="J19">
-        <v>1.050878514202986</v>
+        <v>1.048474627167173</v>
       </c>
       <c r="K19">
-        <v>1.058141003486537</v>
+        <v>1.054882330616082</v>
       </c>
       <c r="L19">
-        <v>1.051079702664253</v>
+        <v>1.048983881867454</v>
       </c>
       <c r="M19">
-        <v>1.060239787815603</v>
+        <v>1.057953842640236</v>
       </c>
       <c r="N19">
-        <v>1.020107765808885</v>
+        <v>1.019675902697939</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.056805869957668</v>
+        <v>1.054997871129849</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.052254048653083</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.049965984175848</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.026613597129708</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,105 +1555,123 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.022478918766975</v>
+        <v>1.020275801026864</v>
       </c>
       <c r="D20">
-        <v>1.043267795809174</v>
+        <v>1.040227567469205</v>
       </c>
       <c r="E20">
-        <v>1.035790818999105</v>
+        <v>1.033943803721198</v>
       </c>
       <c r="F20">
-        <v>1.044961994049979</v>
+        <v>1.042874873905176</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.061068107360786</v>
+        <v>1.05937161643946</v>
       </c>
       <c r="J20">
-        <v>1.04916999559119</v>
+        <v>1.047046894730498</v>
       </c>
       <c r="K20">
-        <v>1.056590231904606</v>
+        <v>1.053598115539757</v>
       </c>
       <c r="L20">
-        <v>1.049232229226231</v>
+        <v>1.047414943896601</v>
       </c>
       <c r="M20">
-        <v>1.05825777467022</v>
+        <v>1.056203507830362</v>
       </c>
       <c r="N20">
-        <v>1.019278270000846</v>
+        <v>1.019222256474553</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.054719471864928</v>
+        <v>1.053093764613439</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.051161483102002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.049062270469267</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.026213565515636</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>1.017374164626802</v>
+        <v>1.015671565641387</v>
       </c>
       <c r="D21">
-        <v>1.039651823245303</v>
+        <v>1.037103955524855</v>
       </c>
       <c r="E21">
-        <v>1.031787619984498</v>
+        <v>1.030404505925803</v>
       </c>
       <c r="F21">
-        <v>1.041172575343328</v>
+        <v>1.039495440391758</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.059333845950395</v>
+        <v>1.057949805821625</v>
       </c>
       <c r="J21">
-        <v>1.046163020520679</v>
+        <v>1.04452836970892</v>
       </c>
       <c r="K21">
-        <v>1.053919002406907</v>
+        <v>1.051414902757735</v>
       </c>
       <c r="L21">
-        <v>1.046190794385454</v>
+        <v>1.044831876550376</v>
       </c>
       <c r="M21">
-        <v>1.055413762406296</v>
+        <v>1.053765297960463</v>
       </c>
       <c r="N21">
-        <v>1.018168708419715</v>
+        <v>1.018950022721787</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.052428569587941</v>
+        <v>1.051123940502924</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.049276067919865</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.047522219607011</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.025728750583665</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.014123989659561</v>
+        <v>1.012738497370337</v>
       </c>
       <c r="D22">
-        <v>1.03735813680763</v>
+        <v>1.035122099210987</v>
       </c>
       <c r="E22">
-        <v>1.029258009857409</v>
+        <v>1.028169504702017</v>
       </c>
       <c r="F22">
-        <v>1.038794134788002</v>
+        <v>1.03737711241931</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I22">
-        <v>1.058226438297678</v>
+        <v>1.057039643815969</v>
       </c>
       <c r="J22">
-        <v>1.04425654514589</v>
+        <v>1.042929591443543</v>
       </c>
       <c r="K22">
-        <v>1.052224153902618</v>
+        <v>1.050028476772449</v>
       </c>
       <c r="L22">
-        <v>1.044271319328933</v>
+        <v>1.043202838010127</v>
       </c>
       <c r="M22">
-        <v>1.053634351153395</v>
+        <v>1.052242787972212</v>
       </c>
       <c r="N22">
-        <v>1.01746966179822</v>
+        <v>1.018775358027224</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.051020306376099</v>
+        <v>1.049918992379937</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.048064533395496</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.046527439445413</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.025422544470185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.015836044412137</v>
+        <v>1.014269634777556</v>
       </c>
       <c r="D23">
-        <v>1.038560233665586</v>
+        <v>1.036148966444941</v>
       </c>
       <c r="E23">
-        <v>1.030586053016482</v>
+        <v>1.02932951850745</v>
       </c>
       <c r="F23">
-        <v>1.040043979371543</v>
+        <v>1.038479610718198</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.058805538773624</v>
+        <v>1.057507347905632</v>
       </c>
       <c r="J23">
-        <v>1.045254470209738</v>
+        <v>1.043752288475742</v>
       </c>
       <c r="K23">
-        <v>1.053108599200668</v>
+        <v>1.050739738413407</v>
       </c>
       <c r="L23">
-        <v>1.045275641830692</v>
+        <v>1.044041619894888</v>
       </c>
       <c r="M23">
-        <v>1.054566377162138</v>
+        <v>1.053029390028291</v>
       </c>
       <c r="N23">
-        <v>1.01783010483853</v>
+        <v>1.018815168708606</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.051757931545498</v>
+        <v>1.050541526910143</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.048680395532853</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.047019909683445</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.025573319001851</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.022466219806344</v>
+        <v>1.020274911004524</v>
       </c>
       <c r="D24">
-        <v>1.043235711938649</v>
+        <v>1.040203889732899</v>
       </c>
       <c r="E24">
-        <v>1.035750832816552</v>
+        <v>1.033916602357422</v>
       </c>
       <c r="F24">
-        <v>1.044905889967561</v>
+        <v>1.042827831551018</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.061037923404012</v>
+        <v>1.059347506965414</v>
       </c>
       <c r="J24">
-        <v>1.049126060042866</v>
+        <v>1.047014229582985</v>
       </c>
       <c r="K24">
-        <v>1.056543842687171</v>
+        <v>1.053559941588292</v>
       </c>
       <c r="L24">
-        <v>1.049177922185775</v>
+        <v>1.047373180657137</v>
       </c>
       <c r="M24">
-        <v>1.058187773778843</v>
+        <v>1.056142388510433</v>
       </c>
       <c r="N24">
-        <v>1.019237304210957</v>
+        <v>1.019194561148866</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.054623974846132</v>
+        <v>1.053005218736077</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.051101830586913</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.04900573585474</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.026190856988984</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029890206018697</v>
+        <v>1.027211858022686</v>
       </c>
       <c r="D25">
-        <v>1.048491310344359</v>
+        <v>1.044924578366305</v>
       </c>
       <c r="E25">
-        <v>1.041563598161459</v>
+        <v>1.039280610000194</v>
       </c>
       <c r="F25">
-        <v>1.050384845054432</v>
+        <v>1.047888106914134</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.063497865184081</v>
+        <v>1.061479184822871</v>
       </c>
       <c r="J25">
-        <v>1.053451881734667</v>
+        <v>1.050856900328563</v>
       </c>
       <c r="K25">
-        <v>1.060380767338165</v>
+        <v>1.056863346125309</v>
       </c>
       <c r="L25">
-        <v>1.053549222321412</v>
+        <v>1.051298280325935</v>
       </c>
       <c r="M25">
-        <v>1.062248294980812</v>
+        <v>1.059785873585584</v>
       </c>
       <c r="N25">
-        <v>1.020808163727723</v>
+        <v>1.020222622709728</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.057837536960978</v>
+        <v>1.055888738481407</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.053811819984748</v>
+        <v>1.05133820598371</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.026943081239322</v>
       </c>
     </row>
   </sheetData>
